--- a/controllers/public/reports/sales-report.xlsx
+++ b/controllers/public/reports/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Order ID</t>
   </si>
@@ -92,6 +92,45 @@
   </si>
   <si>
     <t>12/01/2025, 16:26:09</t>
+  </si>
+  <si>
+    <t>ORD-1736742537979-61cd6af4</t>
+  </si>
+  <si>
+    <t>13/01/2025, 09:58:57</t>
+  </si>
+  <si>
+    <t>ORD-1736742796596-a5238dcc</t>
+  </si>
+  <si>
+    <t>13/01/2025, 10:03:16</t>
+  </si>
+  <si>
+    <t>ORD-1736742919832-eddab4ba</t>
+  </si>
+  <si>
+    <t>13/01/2025, 10:05:19</t>
+  </si>
+  <si>
+    <t>ORD-1736743627086-35daa2b2</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>13/01/2025, 10:17:07</t>
+  </si>
+  <si>
+    <t>ORD-1736743888962-efc6cfe5</t>
+  </si>
+  <si>
+    <t>13/01/2025, 10:21:28</t>
+  </si>
+  <si>
+    <t>ORD-1736744544825-5382ce92</t>
+  </si>
+  <si>
+    <t>13/01/2025, 10:32:24</t>
   </si>
 </sst>
 </file>
@@ -468,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -680,6 +719,180 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>699</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>699</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1518</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1518</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>759</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>759</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>709</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>581</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>759</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>759</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>711</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>711</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/controllers/public/reports/sales-report.xlsx
+++ b/controllers/public/reports/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>Order ID</t>
   </si>
@@ -131,6 +131,54 @@
   </si>
   <si>
     <t>13/01/2025, 10:32:24</t>
+  </si>
+  <si>
+    <t>ORD-1736782648733-793c227e</t>
+  </si>
+  <si>
+    <t>Saurav Palatt</t>
+  </si>
+  <si>
+    <t>sauravpalatt@gmail.com</t>
+  </si>
+  <si>
+    <t>13/01/2025, 21:07:28</t>
+  </si>
+  <si>
+    <t>ORD-1736782718110-c34d0da9</t>
+  </si>
+  <si>
+    <t>13/01/2025, 21:08:38</t>
+  </si>
+  <si>
+    <t>ORD-1736782765736-5f936bd3</t>
+  </si>
+  <si>
+    <t>13/01/2025, 21:09:25</t>
+  </si>
+  <si>
+    <t>ORD-1736831081622-1eadd36b</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>14/01/2025, 10:34:41</t>
+  </si>
+  <si>
+    <t>ORD-1736840630167-c7d4c770</t>
+  </si>
+  <si>
+    <t>REVIEW50</t>
+  </si>
+  <si>
+    <t>14/01/2025, 13:13:50</t>
+  </si>
+  <si>
+    <t>ORD-1736840768506-3f916962</t>
+  </si>
+  <si>
+    <t>14/01/2025, 13:16:08</t>
   </si>
 </sst>
 </file>
@@ -507,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -893,6 +941,180 @@
         <v>39</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>741</v>
+      </c>
+      <c r="E14">
+        <v>185</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>556</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>741</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>741</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>881</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>881</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>741</v>
+      </c>
+      <c r="E17">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>608</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1468</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>1395</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>712</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>712</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/controllers/public/reports/sales-report.xlsx
+++ b/controllers/public/reports/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>Order ID</t>
   </si>
@@ -178,7 +178,88 @@
     <t>ORD-1736840768506-3f916962</t>
   </si>
   <si>
+    <t>return approved</t>
+  </si>
+  <si>
     <t>14/01/2025, 13:16:08</t>
+  </si>
+  <si>
+    <t>ORD-1736921273602-1d81a9e1</t>
+  </si>
+  <si>
+    <t>15/01/2025, 11:37:53</t>
+  </si>
+  <si>
+    <t>ORD-1736922318507-df33f9bd</t>
+  </si>
+  <si>
+    <t>15/01/2025, 11:55:18</t>
+  </si>
+  <si>
+    <t>ORD-1736922879834-aa9a9186</t>
+  </si>
+  <si>
+    <t>15/01/2025, 12:04:39</t>
+  </si>
+  <si>
+    <t>ORD-1736924311922-71beabcc</t>
+  </si>
+  <si>
+    <t>15/01/2025, 12:28:31</t>
+  </si>
+  <si>
+    <t>ORD-1736924400415-f87fdcf3</t>
+  </si>
+  <si>
+    <t>15/01/2025, 12:30:00</t>
+  </si>
+  <si>
+    <t>ORD-1736950818225-ddb68a48</t>
+  </si>
+  <si>
+    <t>15/01/2025, 19:50:18</t>
+  </si>
+  <si>
+    <t>ORD-1736950882256-eda8eb06</t>
+  </si>
+  <si>
+    <t>15/01/2025, 19:51:22</t>
+  </si>
+  <si>
+    <t>ORD-1737001643934-dcd640af</t>
+  </si>
+  <si>
+    <t>16/01/2025, 09:57:23</t>
+  </si>
+  <si>
+    <t>ORD-1737001988963-2000ff84</t>
+  </si>
+  <si>
+    <t>16/01/2025, 10:03:08</t>
+  </si>
+  <si>
+    <t>ORD-1737005141372-6f847034</t>
+  </si>
+  <si>
+    <t>16/01/2025, 10:55:41</t>
+  </si>
+  <si>
+    <t>ORD-1737005481173-86d4f49c</t>
+  </si>
+  <si>
+    <t>16/01/2025, 11:01:21</t>
+  </si>
+  <si>
+    <t>ORD-1737006109565-f7dead73</t>
+  </si>
+  <si>
+    <t>16/01/2025, 11:11:49</t>
+  </si>
+  <si>
+    <t>ORD-1737006560056-2fbc8a89</t>
+  </si>
+  <si>
+    <t>16/01/2025, 11:19:20</t>
   </si>
 </sst>
 </file>
@@ -555,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -1109,10 +1190,387 @@
         <v>712</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>783</v>
+      </c>
+      <c r="E20">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>587</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>712</v>
+      </c>
+      <c r="E21">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>534</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>712</v>
+      </c>
+      <c r="E22">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>712</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>712</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>712</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>783</v>
+      </c>
+      <c r="E24">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>642</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>712</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>712</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>712</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>712</v>
+      </c>
+      <c r="H26" t="s">
         <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>391</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>391</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>783</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>783</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>712</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>712</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>712</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>712</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>712</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>712</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>783</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>783</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/public/reports/sales-report.xlsx
+++ b/controllers/public/reports/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>Order ID</t>
   </si>
@@ -260,6 +260,24 @@
   </si>
   <si>
     <t>16/01/2025, 11:19:20</t>
+  </si>
+  <si>
+    <t>ORD-1737110619488-513d2537</t>
+  </si>
+  <si>
+    <t>17/01/2025, 16:13:39</t>
+  </si>
+  <si>
+    <t>ORD-1737188741230-2b921f53</t>
+  </si>
+  <si>
+    <t>18/01/2025, 13:55:41</t>
+  </si>
+  <si>
+    <t>ORD-1737189239099-1f2fcabf</t>
+  </si>
+  <si>
+    <t>18/01/2025, 14:03:59</t>
   </si>
 </sst>
 </file>
@@ -636,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -1573,6 +1591,93 @@
         <v>82</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>712</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>712</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>4698</v>
+      </c>
+      <c r="E34">
+        <v>1175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>3523</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>1517</v>
+      </c>
+      <c r="E35">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35">
+        <v>1517</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/controllers/public/reports/sales-report.xlsx
+++ b/controllers/public/reports/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Order ID</t>
   </si>
@@ -40,6 +40,75 @@
     <t>Date</t>
   </si>
   <si>
+    <t>ORD-1737273423836-d6156820</t>
+  </si>
+  <si>
+    <t>Prithviraj</t>
+  </si>
+  <si>
+    <t>iamprithvi@gmail.com</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>19/01/2025, 13:27:03</t>
+  </si>
+  <si>
+    <t>ORD-1737273560526-434a6ed0</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>19/01/2025, 13:29:20</t>
+  </si>
+  <si>
+    <t>ORD-1737274624241-f93f3f04</t>
+  </si>
+  <si>
+    <t>19/01/2025, 13:47:04</t>
+  </si>
+  <si>
+    <t>ORD-1737294941037-5eef1ea3</t>
+  </si>
+  <si>
+    <t>19/01/2025, 19:25:41</t>
+  </si>
+  <si>
+    <t>ORD-1737303328909-d74b71f1</t>
+  </si>
+  <si>
+    <t>FLAT250</t>
+  </si>
+  <si>
+    <t>19/01/2025, 21:45:28</t>
+  </si>
+  <si>
+    <t>ORD-1737303859006-0960a977</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>iamcris@gmail.com</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>19/01/2025, 21:54:19</t>
+  </si>
+  <si>
+    <t>ORD-1737305236600-d7bccf75</t>
+  </si>
+  <si>
+    <t>19/01/2025, 22:17:16</t>
+  </si>
+  <si>
     <t>ORD-1737352982855-34027e98</t>
   </si>
   <si>
@@ -49,13 +118,70 @@
     <t>shaji@gmail.com</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>canceled</t>
-  </si>
-  <si>
     <t>20/01/2025, 11:33:02</t>
+  </si>
+  <si>
+    <t>ORD-1737353311593-6cce3ade</t>
+  </si>
+  <si>
+    <t>REVIEW50</t>
+  </si>
+  <si>
+    <t>20/01/2025, 11:38:31</t>
+  </si>
+  <si>
+    <t>ORD-1737354199982-02ba49db</t>
+  </si>
+  <si>
+    <t>20/01/2025, 11:53:19</t>
+  </si>
+  <si>
+    <t>ORD-1737354518985-fa65c808</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>20/01/2025, 11:58:38</t>
+  </si>
+  <si>
+    <t>ORD-1737378521167-3d7164a1</t>
+  </si>
+  <si>
+    <t>Anandhu</t>
+  </si>
+  <si>
+    <t>anandhu456@gmail.com</t>
+  </si>
+  <si>
+    <t>20/01/2025, 18:38:41</t>
+  </si>
+  <si>
+    <t>ORD-1737384218527-8f2c4d67</t>
+  </si>
+  <si>
+    <t>20/01/2025, 20:13:38</t>
+  </si>
+  <si>
+    <t>ORD-1737396692231-3b98ca2a</t>
+  </si>
+  <si>
+    <t>20/01/2025, 23:41:32</t>
+  </si>
+  <si>
+    <t>ORD-1737461724840-2e2ca206</t>
+  </si>
+  <si>
+    <t>Review Test</t>
+  </si>
+  <si>
+    <t>reviewtesttwo@gmail.com</t>
+  </si>
+  <si>
+    <t>REVIEW11</t>
+  </si>
+  <si>
+    <t>21/01/2025, 17:45:24</t>
   </si>
 </sst>
 </file>
@@ -432,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -481,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>3239</v>
+        <v>1959</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -490,13 +616,419 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>3239</v>
+        <v>1959</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>783</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>783</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1959</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1959</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>712</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>712</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>391</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>391</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1762</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1762</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>734</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>734</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>3239</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>3239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>1566</v>
+      </c>
+      <c r="E10">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>1488</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>1566</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>1566</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>1425</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>1425</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>1664</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1664</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>637</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>387</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>637</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>437</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
